--- a/Colpatria.xlsx
+++ b/Colpatria.xlsx
@@ -96,10 +96,11 @@
     <t>Se requiere crear un clasificador de documentos para el proceso de afiliaciones</t>
   </si>
   <si>
-    <t>EN PROCESO</t>
+    <t>PAUSADO</t>
   </si>
   <si>
-    <t>Se tiene ya construida la base del entranamiento</t>
+    <t>Se tiene ya construida la base del entranamiento
+15/10/2025: Se Pausa este requerimiento mientras se avanza en otras automatizaciones del proceso de afiliaciones</t>
   </si>
   <si>
     <t>COLP25-0002</t>
@@ -113,11 +114,11 @@
 - Ajustar el proceso diario de preparación de archivos
 - Ajustar visualización de imagenes posterior a generar lotes
 - Ajustar para que se mantengan los filtros del gestor lote
-- Permitir carga de otros tipos de archivos (xlsx, correos, word o zip)
+- Permitir carga de otros tipos de archivos (xlsx, correos, word)
 - Los excel NR, no salen completos, ajustar el pantallazo al tamaño de la tabla</t>
   </si>
   <si>
-    <t>PASO A PRODUCCION</t>
+    <t>FINALIZADO</t>
   </si>
   <si>
     <t>12/09/2025: Se ajusta la resolucion de imagenes
@@ -135,6 +136,9 @@
     <t>El informe de usuarios de Imagine se envia de forma mensual, en los primeros 5 dias del mes, este proceso realiza de forma manual y se requiere habilitar un proceso automatico para que lo envie</t>
   </si>
   <si>
+    <t>EN PROCESO</t>
+  </si>
+  <si>
     <t>03/10/2025: Se revisa el proceso de la generación del informe con John
 03/10/2025: Se realizaron ajustes en el reporte, se corregen inconsistencias que se ajustadas de forma manual actualmente</t>
   </si>
@@ -146,6 +150,9 @@
   </si>
   <si>
     <t>Se requiere una opcion que permite agilizar el proceso de alistamiento del archivo de nomina, ya que es algo que quita mucho tiempo por cada archivo</t>
+  </si>
+  <si>
+    <t>PASO A PRODUCCION</t>
   </si>
   <si>
     <t xml:space="preserve">22/08/2025: Se crea la estructura y la lectura del archivo, se mapean algunos campos del excel
@@ -164,9 +171,6 @@
   </si>
   <si>
     <t>Este desarrollo es para reducir la manuallidad de procesar archivos de excel de forma manual, este permitir realizar las trasnformaciones de los valores de las columnas y validar la información</t>
-  </si>
-  <si>
-    <t>PAUSADO</t>
   </si>
   <si>
     <t>22/08/2025: Se han agregado mejoras y optimizaciones al proceso de transformación del archivo masivo
@@ -259,9 +263,6 @@
   </si>
   <si>
     <t>Implementación de cartas (Devolución, glosa y pago).</t>
-  </si>
-  <si>
-    <t>FINALIZADO</t>
   </si>
   <si>
     <t>*02/10/2024 ya se encuentra implementado</t>
@@ -624,7 +625,7 @@
     <t>Internal Server Error</t>
   </si>
   <si>
-    <t>TRUE</t>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -2190,8 +2191,8 @@
   <dimension ref="A1:AM940"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2212,7 +2213,7 @@
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="17.21875" customWidth="1"/>
     <col min="16" max="16" width="33.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="39" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2322,7 +2323,7 @@
       <c r="L2" s="25"/>
       <c r="M2" s="26">
         <f ca="1">IF(ISBLANK(L2), NETWORKDAYS(J2, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J2, L2, Hoja2!$A$1:$A$18))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
@@ -2355,7 +2356,7 @@
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
     </row>
-    <row r="3" spans="1:39" ht="53.25" customHeight="1">
+    <row r="3" spans="1:39" ht="178.5">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="20">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="29"/>
@@ -2383,10 +2384,12 @@
       <c r="K3" s="30">
         <v>45947</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="30">
+        <v>45945</v>
+      </c>
       <c r="M3" s="26">
         <f ca="1">IF(ISBLANK(L3), NETWORKDAYS(J3, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J3, L3, Hoja2!$A$1:$A$18))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="32"/>
@@ -2434,7 +2437,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G4" s="20">
         <v>80</v>
@@ -2450,12 +2453,12 @@
       <c r="L4" s="25"/>
       <c r="M4" s="26">
         <f ca="1">IF(ISBLANK(L4), NETWORKDAYS(J4, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J4, L4, Hoja2!$A$1:$A$18))</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="32"/>
       <c r="P4" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="28" t="s">
         <v>155</v>
@@ -2488,17 +2491,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G5" s="20">
         <v>90</v>
@@ -2514,7 +2517,7 @@
       <c r="L5" s="25"/>
       <c r="M5" s="26">
         <f ca="1">IF(ISBLANK(L5), NETWORKDAYS(J5, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J5, L5, Hoja2!$A$1:$A$18))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N5" s="30">
         <v>45909</v>
@@ -2523,7 +2526,7 @@
         <v>45919</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="28" t="s">
         <v>155</v>
@@ -2556,17 +2559,17 @@
         <v>17</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G6" s="20">
         <v>90</v>
@@ -2582,12 +2585,12 @@
       <c r="L6" s="36"/>
       <c r="M6" s="26">
         <f ca="1">IF(ISBLANK(L6), NETWORKDAYS(J6, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J6, L6, Hoja2!$A$1:$A$18))</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="28" t="s">
         <v>155</v>
@@ -2620,17 +2623,17 @@
         <v>17</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G7" s="20">
         <v>97</v>
@@ -2646,12 +2649,12 @@
       <c r="L7" s="36"/>
       <c r="M7" s="26">
         <f ca="1">IF(ISBLANK(L7), NETWORKDAYS(J7, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J7, L7, Hoja2!$A$1:$A$18))</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="38"/>
       <c r="P7" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="28" t="s">
         <v>155</v>
@@ -2684,17 +2687,17 @@
         <v>17</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G8" s="20">
         <v>90</v>
@@ -2710,12 +2713,12 @@
       <c r="L8" s="25"/>
       <c r="M8" s="26">
         <f ca="1">IF(ISBLANK(L8), NETWORKDAYS(J8, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J8, L8, Hoja2!$A$1:$A$18))</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="38"/>
       <c r="P8" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="28" t="s">
         <v>155</v>
@@ -2748,17 +2751,17 @@
         <v>17</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="20">
         <v>0</v>
@@ -2774,12 +2777,12 @@
       <c r="L9" s="25"/>
       <c r="M9" s="26">
         <f ca="1">IF(ISBLANK(L9), NETWORKDAYS(J9, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J9, L9, Hoja2!$A$1:$A$18))</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="38"/>
       <c r="P9" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="28" t="s">
         <v>155</v>
@@ -2822,7 +2825,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="26">
         <f ca="1">IF(ISBLANK(L10), NETWORKDAYS(J10, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J10, L10, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="38"/>
@@ -2866,7 +2869,7 @@
       <c r="L11" s="25"/>
       <c r="M11" s="26">
         <f ca="1">IF(ISBLANK(L11), NETWORKDAYS(J11, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J11, L11, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="38"/>
@@ -2910,7 +2913,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="26">
         <f ca="1">IF(ISBLANK(L12), NETWORKDAYS(J12, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J12, L12, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="38"/>
@@ -2954,7 +2957,7 @@
       <c r="L13" s="25"/>
       <c r="M13" s="26">
         <f ca="1">IF(ISBLANK(L13), NETWORKDAYS(J13, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J13, L13, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="38"/>
@@ -2998,7 +3001,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="26">
         <f ca="1">IF(ISBLANK(L14), NETWORKDAYS(J14, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J14, L14, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="38"/>
@@ -3042,7 +3045,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="26">
         <f ca="1">IF(ISBLANK(L15), NETWORKDAYS(J15, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J15, L15, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="38"/>
@@ -3086,7 +3089,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="26">
         <f ca="1">IF(ISBLANK(L16), NETWORKDAYS(J16, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J16, L16, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="38"/>
@@ -3130,7 +3133,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="26">
         <f ca="1">IF(ISBLANK(L17), NETWORKDAYS(J17, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J17, L17, Hoja2!$A$1:$A$18))</f>
-        <v>32795</v>
+        <v>32802</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="38"/>
@@ -41052,7 +41055,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30">
       <c r="A1" s="108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="108" t="s">
         <v>2</v>
@@ -41073,19 +41076,19 @@
         <v>10</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="109" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="113"/>
       <c r="N1" s="113"/>
@@ -41104,14 +41107,14 @@
     </row>
     <row r="2" spans="1:26" ht="30">
       <c r="A2" s="114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="118">
         <v>45526</v>
@@ -41125,7 +41128,7 @@
       <c r="J2" s="116"/>
       <c r="K2" s="116"/>
       <c r="L2" s="116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M2" s="119"/>
       <c r="N2" s="119"/>
@@ -41144,16 +41147,16 @@
     </row>
     <row r="3" spans="1:26" ht="28.5">
       <c r="A3" s="120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="122" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E3" s="123">
         <v>45560</v>
@@ -41244,7 +41247,7 @@
     </row>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" s="112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="128" t="s">
         <v>72</v>
@@ -41342,10 +41345,10 @@
     </row>
     <row r="7" spans="1:26" ht="99.75">
       <c r="A7" s="112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="140" t="s">
         <v>81</v>
@@ -41391,7 +41394,7 @@
     </row>
     <row r="8" spans="1:26" ht="71.25">
       <c r="A8" s="144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="145" t="s">
         <v>83</v>
@@ -50087,7 +50090,7 @@
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="168" t="s">
         <v>122</v>
@@ -53371,7 +53374,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="174" t="s">
         <v>2</v>
@@ -53392,19 +53395,19 @@
         <v>10</v>
       </c>
       <c r="H1" s="175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="177" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="180"/>
       <c r="N1" s="180"/>
@@ -53430,7 +53433,7 @@
       </c>
       <c r="C2" s="183"/>
       <c r="D2" s="183" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E2" s="184">
         <v>45567</v>
@@ -53481,7 +53484,7 @@
         <v>149</v>
       </c>
       <c r="D3" s="183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="184">
         <v>45575</v>
@@ -53526,7 +53529,7 @@
         <v>151</v>
       </c>
       <c r="D4" s="183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="184">
         <v>45575</v>
@@ -53573,7 +53576,7 @@
         <v>154</v>
       </c>
       <c r="D5" s="183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="184">
         <v>45575</v>

--- a/Colpatria.xlsx
+++ b/Colpatria.xlsx
@@ -2527,7 +2527,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="20">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="29"/>

--- a/Colpatria.xlsx
+++ b/Colpatria.xlsx
@@ -18,7 +18,7 @@
     <sheet name="pruebas i" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Colpatria)'!$F$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Colpatria)'!$F$1:$F$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="320">
   <si>
     <t>Asignado a</t>
   </si>
@@ -748,12 +748,24 @@
     <t>Migrar Proceso de Afiliaciones Access</t>
   </si>
   <si>
+    <t>Se requiere migrar el modulo de access a web para el procesamiento de afiliaciones</t>
+  </si>
+  <si>
+    <t>24/02/2026: Se esta creando el frontend para el flujo de procesamiento de afiliaciones</t>
+  </si>
+  <si>
     <t>COLP26-0016</t>
   </si>
   <si>
     <t>Migrar Proceso de Novedades Access</t>
   </si>
   <si>
+    <t>Se requiere hacer la migracion del modulo de access a web</t>
+  </si>
+  <si>
+    <t>24/02/2026: Se estan creando funcionalidades para automarizar el procesamiento de novedades normales</t>
+  </si>
+  <si>
     <t>COLP26-0017</t>
   </si>
   <si>
@@ -764,6 +776,27 @@
   </si>
   <si>
     <t>18/02/2026: Se asignan permisos en los modulos de Imagien al usuario de acuerdo con la solicitud.</t>
+  </si>
+  <si>
+    <t>COLP26-0018</t>
+  </si>
+  <si>
+    <t>Depuracion de Tramites en estado devuelto</t>
+  </si>
+  <si>
+    <t>Se requiere una depuración sobre los tramites en estado de devolución, esto es necesario para poder habilitar las notificaciones de pendientes en devolución que se solicito ajustar por parte del cliente para que se le envie notificación a cada usuario.</t>
+  </si>
+  <si>
+    <t>24/02/2026: Se esta realizando la revision de los tramites en edvolucion para determinar como proceder con cada uno</t>
+  </si>
+  <si>
+    <t>COLP26-0019</t>
+  </si>
+  <si>
+    <t>Migrar el Radicador al nuevo aplicativo</t>
+  </si>
+  <si>
+    <t>Se requiere migrar el modulo de radicacion actualmente en PHP al nuevo aplicativo de Imagine</t>
   </si>
   <si>
     <t xml:space="preserve"> Año Nuevo</t>
@@ -1924,8 +1957,8 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2284,11 +2317,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2430,7 +2463,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -2439,7 +2472,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="T2" s="32"/>
       <c r="U2" s="33"/>
@@ -2513,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S3" s="47"/>
       <c r="T3" s="47"/>
@@ -2577,7 +2610,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -2586,7 +2619,7 @@
         <v>33</v>
       </c>
       <c r="R4" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S4" s="33"/>
       <c r="T4" s="33"/>
@@ -2665,7 +2698,7 @@
         <v>37</v>
       </c>
       <c r="R5" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
@@ -2744,7 +2777,7 @@
         <v>41</v>
       </c>
       <c r="R6" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
@@ -2823,7 +2856,7 @@
         <v>45</v>
       </c>
       <c r="R7" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
@@ -2900,7 +2933,7 @@
         <v>49</v>
       </c>
       <c r="R8" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
@@ -2964,7 +2997,7 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
@@ -2973,7 +3006,7 @@
         <v>53</v>
       </c>
       <c r="R9" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S9" s="47"/>
       <c r="T9" s="47"/>
@@ -3048,7 +3081,7 @@
         <v>57</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
@@ -3123,7 +3156,7 @@
         <v>61</v>
       </c>
       <c r="R11" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S11" s="47"/>
       <c r="T11" s="47"/>
@@ -3198,7 +3231,7 @@
         <v>65</v>
       </c>
       <c r="R12" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
@@ -3273,7 +3306,7 @@
         <v>69</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S13" s="47"/>
       <c r="T13" s="47"/>
@@ -3348,7 +3381,7 @@
         <v>73</v>
       </c>
       <c r="R14" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
@@ -3423,7 +3456,7 @@
         <v>77</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="47"/>
@@ -3502,7 +3535,7 @@
         <v>81</v>
       </c>
       <c r="R16" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
@@ -3581,7 +3614,7 @@
         <v>85</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S17" s="47"/>
       <c r="T17" s="47"/>
@@ -3645,7 +3678,7 @@
       NETWORKDAYS(J18,L18,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N18" s="55"/>
       <c r="O18" s="55"/>
@@ -3654,7 +3687,7 @@
         <v>90</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
@@ -3733,7 +3766,7 @@
         <v>94</v>
       </c>
       <c r="R19" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S19" s="47"/>
       <c r="T19" s="47"/>
@@ -3812,7 +3845,7 @@
         <v>98</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
@@ -3891,7 +3924,7 @@
         <v>102</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S21" s="47"/>
       <c r="T21" s="47"/>
@@ -3970,7 +4003,7 @@
         <v>106</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
@@ -4034,14 +4067,14 @@
       NETWORKDAYS(J23,L23,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N23" s="55"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S23" s="73"/>
       <c r="T23" s="47"/>
@@ -4118,7 +4151,7 @@
         <v>113</v>
       </c>
       <c r="R24" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
@@ -4197,7 +4230,7 @@
         <v>117</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S25" s="47"/>
       <c r="T25" s="47"/>
@@ -4276,7 +4309,7 @@
         <v>121</v>
       </c>
       <c r="R26" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
@@ -4355,7 +4388,7 @@
         <v>125</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S27" s="47"/>
       <c r="T27" s="47"/>
@@ -4434,7 +4467,7 @@
         <v>129</v>
       </c>
       <c r="R28" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -4513,7 +4546,7 @@
         <v>133</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S29" s="47"/>
       <c r="T29" s="47"/>
@@ -4592,7 +4625,7 @@
         <v>137</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
@@ -4671,7 +4704,7 @@
         <v>141</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S31" s="47"/>
       <c r="T31" s="47"/>
@@ -4750,7 +4783,7 @@
         <v>145</v>
       </c>
       <c r="R32" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
@@ -4829,7 +4862,7 @@
         <v>149</v>
       </c>
       <c r="R33" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S33" s="47"/>
       <c r="T33" s="47"/>
@@ -4908,7 +4941,7 @@
         <v>153</v>
       </c>
       <c r="R34" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
@@ -4970,7 +5003,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
@@ -4981,7 +5014,7 @@
         <v>157</v>
       </c>
       <c r="R35" s="46" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S35" s="83"/>
       <c r="T35" s="84"/>
@@ -5058,7 +5091,7 @@
         <v>161</v>
       </c>
       <c r="R36" s="49" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S36" s="86"/>
       <c r="T36" s="87"/>
@@ -5137,7 +5170,7 @@
         <v>165</v>
       </c>
       <c r="R37" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S37" s="83"/>
       <c r="T37" s="84"/>
@@ -5216,7 +5249,7 @@
         <v>169</v>
       </c>
       <c r="R38" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S38" s="86"/>
       <c r="T38" s="87"/>
@@ -5283,7 +5316,7 @@
       <c r="P39" s="55"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S39" s="83"/>
       <c r="T39" s="84"/>
@@ -5350,7 +5383,7 @@
       <c r="P40" s="55"/>
       <c r="Q40" s="30"/>
       <c r="R40" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S40" s="95"/>
       <c r="T40" s="96"/>
@@ -5427,7 +5460,7 @@
         <v>180</v>
       </c>
       <c r="R41" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S41" s="83"/>
       <c r="T41" s="84"/>
@@ -5504,7 +5537,7 @@
         <v>184</v>
       </c>
       <c r="R42" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S42" s="86"/>
       <c r="T42" s="87"/>
@@ -5581,7 +5614,7 @@
         <v>188</v>
       </c>
       <c r="R43" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S43" s="83"/>
       <c r="T43" s="84"/>
@@ -5648,7 +5681,7 @@
       <c r="P44" s="55"/>
       <c r="Q44" s="71"/>
       <c r="R44" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S44" s="86"/>
       <c r="T44" s="87"/>
@@ -5715,7 +5748,7 @@
       <c r="P45" s="55"/>
       <c r="Q45" s="71"/>
       <c r="R45" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S45" s="83"/>
       <c r="T45" s="84"/>
@@ -5794,7 +5827,7 @@
         <v>198</v>
       </c>
       <c r="R46" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S46" s="86"/>
       <c r="T46" s="87"/>
@@ -5873,7 +5906,7 @@
         <v>202</v>
       </c>
       <c r="R47" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S47" s="83"/>
       <c r="T47" s="84"/>
@@ -5952,7 +5985,7 @@
         <v>206</v>
       </c>
       <c r="R48" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S48" s="86"/>
       <c r="T48" s="87"/>
@@ -6031,7 +6064,7 @@
         <v>210</v>
       </c>
       <c r="R49" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S49" s="83"/>
       <c r="T49" s="84"/>
@@ -6100,7 +6133,7 @@
       <c r="P50" s="107"/>
       <c r="Q50" s="108"/>
       <c r="R50" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S50" s="86"/>
       <c r="T50" s="87"/>
@@ -6181,7 +6214,7 @@
         <v>217</v>
       </c>
       <c r="R51" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S51" s="83"/>
       <c r="T51" s="84"/>
@@ -6206,7 +6239,7 @@
       <c r="AM51" s="84"/>
       <c r="AN51" s="85"/>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:40" ht="30">
       <c r="A52" s="99" t="s">
         <v>18</v>
       </c>
@@ -6216,7 +6249,9 @@
       <c r="C52" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="D52" s="109"/>
+      <c r="D52" s="102" t="s">
+        <v>220</v>
+      </c>
       <c r="E52" s="103"/>
       <c r="F52" s="104" t="s">
         <v>89</v>
@@ -6244,9 +6279,11 @@
       <c r="N52" s="107"/>
       <c r="O52" s="107"/>
       <c r="P52" s="107"/>
-      <c r="Q52" s="108"/>
+      <c r="Q52" s="109" t="s">
+        <v>221</v>
+      </c>
       <c r="R52" s="89" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S52" s="86"/>
       <c r="T52" s="87"/>
@@ -6271,17 +6308,19 @@
       <c r="AM52" s="87"/>
       <c r="AN52" s="88"/>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:40" ht="30">
       <c r="A53" s="110" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="111" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C53" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="113"/>
+        <v>223</v>
+      </c>
+      <c r="D53" s="113" t="s">
+        <v>224</v>
+      </c>
       <c r="E53" s="114"/>
       <c r="F53" s="115" t="s">
         <v>173</v>
@@ -6309,9 +6348,11 @@
       <c r="N53" s="117"/>
       <c r="O53" s="117"/>
       <c r="P53" s="117"/>
-      <c r="Q53" s="118"/>
+      <c r="Q53" s="118" t="s">
+        <v>225</v>
+      </c>
       <c r="R53" s="72" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S53" s="83"/>
       <c r="T53" s="84"/>
@@ -6341,13 +6382,13 @@
         <v>18</v>
       </c>
       <c r="B54" s="77" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D54" s="65" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E54" s="75"/>
       <c r="F54" s="51" t="s">
@@ -6385,10 +6426,10 @@
       <c r="O54" s="57"/>
       <c r="P54" s="57"/>
       <c r="Q54" s="45" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="R54" s="119" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S54" s="86"/>
       <c r="T54" s="87"/>
@@ -6413,18 +6454,158 @@
       <c r="AM54" s="87"/>
       <c r="AN54" s="88"/>
     </row>
+    <row r="55" spans="1:40" ht="90">
+      <c r="A55" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="114"/>
+      <c r="F55" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="116">
+        <v>20</v>
+      </c>
+      <c r="H55" s="24">
+        <f>IF(OR(J55="",K55="",K55&lt;J55),0,NETWORKDAYS(J55,K55,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="29">
+        <f ca="1">IF(OR(J55="",AND(L55="",TODAY()&lt;J55),AND(L55&lt;&gt;"",L55&lt;J55)),0,
+   IF(L55="",
+      NETWORKDAYS(J55,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J55,L55,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="117"/>
+      <c r="O55" s="117"/>
+      <c r="P55" s="117"/>
+      <c r="Q55" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="R55" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="S55" s="83"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="84"/>
+      <c r="V55" s="84"/>
+      <c r="W55" s="84"/>
+      <c r="X55" s="84"/>
+      <c r="Y55" s="84"/>
+      <c r="Z55" s="84"/>
+      <c r="AA55" s="84"/>
+      <c r="AB55" s="84"/>
+      <c r="AC55" s="84"/>
+      <c r="AD55" s="84"/>
+      <c r="AE55" s="84"/>
+      <c r="AF55" s="84"/>
+      <c r="AG55" s="84"/>
+      <c r="AH55" s="84"/>
+      <c r="AI55" s="84"/>
+      <c r="AJ55" s="84"/>
+      <c r="AK55" s="84"/>
+      <c r="AL55" s="84"/>
+      <c r="AM55" s="84"/>
+      <c r="AN55" s="85"/>
+    </row>
+    <row r="56" spans="1:40" ht="45">
+      <c r="A56" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="103"/>
+      <c r="F56" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="105">
+        <v>40</v>
+      </c>
+      <c r="H56" s="24">
+        <f>IF(OR(J56="",K56="",K56&lt;J56),0,NETWORKDAYS(J56,K56,Hoja2!$A$2:$A$53))</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="106">
+        <v>46076</v>
+      </c>
+      <c r="J56" s="106">
+        <v>46076</v>
+      </c>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="29">
+        <f ca="1">IF(OR(J56="",AND(L56="",TODAY()&lt;J56),AND(L56&lt;&gt;"",L56&lt;J56)),0,
+   IF(L56="",
+      NETWORKDAYS(J56,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J56,L56,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="N56" s="107"/>
+      <c r="O56" s="107"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="S56" s="86"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="87"/>
+      <c r="V56" s="87"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="87"/>
+      <c r="Y56" s="87"/>
+      <c r="Z56" s="87"/>
+      <c r="AA56" s="87"/>
+      <c r="AB56" s="87"/>
+      <c r="AC56" s="87"/>
+      <c r="AD56" s="87"/>
+      <c r="AE56" s="87"/>
+      <c r="AF56" s="87"/>
+      <c r="AG56" s="87"/>
+      <c r="AH56" s="87"/>
+      <c r="AI56" s="87"/>
+      <c r="AJ56" s="87"/>
+      <c r="AK56" s="87"/>
+      <c r="AL56" s="87"/>
+      <c r="AM56" s="87"/>
+      <c r="AN56" s="88"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F54"/>
-  <conditionalFormatting sqref="B2:B54">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(B$2:B$54,B2)&gt;1</formula>
+  <autoFilter ref="F1:F56"/>
+  <conditionalFormatting sqref="B2:B56">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>COUNTIF(B$2:B$56,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F54">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F56">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS TRIACOL,PRUEBAS IMAGINE,PASO A PRODUCCION"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L54 N2:P54">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L56 N2:P56">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -6449,7 +6630,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -6457,7 +6638,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -6465,7 +6646,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -6473,7 +6654,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -6481,7 +6662,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -6489,7 +6670,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="121" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -6497,7 +6678,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="121" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -6505,7 +6686,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="121" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -6513,7 +6694,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -6521,7 +6702,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="121" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -6529,7 +6710,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -6537,7 +6718,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="121" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -6545,7 +6726,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="121" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -6553,7 +6734,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="121" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -6561,7 +6742,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -6569,7 +6750,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -6577,7 +6758,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -6585,7 +6766,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -6593,7 +6774,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="122" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -6601,7 +6782,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="122" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -6609,7 +6790,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="122" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -6617,7 +6798,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="122" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -6625,7 +6806,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="122" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -6633,7 +6814,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="122" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -6641,7 +6822,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="122" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -6649,7 +6830,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="122" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -6657,7 +6838,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="122" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -6665,7 +6846,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="122" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -6673,7 +6854,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="122" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -6681,7 +6862,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="122" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -6689,7 +6870,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="122" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -6697,7 +6878,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="122" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -6705,7 +6886,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="122" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -6713,7 +6894,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="122" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -6721,7 +6902,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="122" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -6729,7 +6910,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="122" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -6737,7 +6918,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="122" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -6745,7 +6926,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="122" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -6753,7 +6934,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="122" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -6761,7 +6942,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="122" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -6769,7 +6950,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="122" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -6777,7 +6958,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="122" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -6785,7 +6966,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="122" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -6793,7 +6974,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="122" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -6801,7 +6982,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="122" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -6809,7 +6990,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="122" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -6817,7 +6998,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="122" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -6825,7 +7006,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="122" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -6833,7 +7014,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="122" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -6841,7 +7022,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="122" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -6849,7 +7030,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="122" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -6857,7 +7038,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="122" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -6865,7 +7046,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="122" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>
@@ -7842,7 +8023,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="123" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -7900,7 +8081,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="125" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B3" s="126">
         <v>45596</v>
@@ -8193,261 +8374,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="129" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B4" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O4" s="132" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P4" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U4" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="V4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="X4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Z4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE4" s="158" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AF4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL4" s="158" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="AM4" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AN4" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AO4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP4" s="158" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AQ4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AR4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AS4" s="158" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AT4" s="134" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AU4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AV4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AW4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AY4" s="158" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AZ4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BA4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BB4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BC4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BE4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BF4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BG4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BH4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI4" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ4" s="158" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BK4" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BL4" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BM4" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BN4" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BO4" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BP4" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BQ4" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BR4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BS4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BT4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BU4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BY4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BZ4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CA4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CB4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CC4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CD4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CE4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG4" s="132"/>
       <c r="CH4" s="132"/>
       <c r="CI4" s="158" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="CJ4" s="132"/>
       <c r="CK4" s="132"/>
@@ -8459,249 +8640,249 @@
       <c r="CQ4" s="132"/>
       <c r="CR4" s="132"/>
       <c r="CS4" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="129" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B5" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="N5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="O5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="P5" s="133" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U5" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="V5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="X5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Z5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE5" s="159"/>
       <c r="AF5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL5" s="159"/>
       <c r="AM5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AN5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AO5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP5" s="159"/>
       <c r="AQ5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AR5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AS5" s="159"/>
       <c r="AT5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AU5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AV5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AW5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AX5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AY5" s="159"/>
       <c r="AZ5" s="132" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="BA5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BB5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BC5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BE5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BF5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BG5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BH5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI5" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ5" s="159"/>
       <c r="BK5" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BL5" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BN5" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BO5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BP5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BQ5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BR5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BS5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BT5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BU5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BY5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BZ5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CA5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CB5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CC5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CD5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CE5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG5" s="132"/>
       <c r="CH5" s="132"/>
@@ -8716,249 +8897,249 @@
       <c r="CQ5" s="132"/>
       <c r="CR5" s="132"/>
       <c r="CS5" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="129" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K6" s="135" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="L6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O6" s="132" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P6" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U6" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="V6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="X6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Z6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE6" s="159"/>
       <c r="AF6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL6" s="159"/>
       <c r="AM6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AN6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AO6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP6" s="159"/>
       <c r="AQ6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AR6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AS6" s="159"/>
       <c r="AT6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AU6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AV6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AW6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AY6" s="159"/>
       <c r="AZ6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BA6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BB6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BC6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BE6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BF6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BG6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BH6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI6" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ6" s="159"/>
       <c r="BK6" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BL6" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM6" s="132" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="BN6" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BO6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BP6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BQ6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BR6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BS6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BT6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BU6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BY6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BZ6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CA6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CB6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CC6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CD6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CE6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG6" s="132"/>
       <c r="CH6" s="132"/>
@@ -8973,198 +9154,198 @@
       <c r="CQ6" s="132"/>
       <c r="CR6" s="132"/>
       <c r="CS6" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="135" t="s">
+        <v>288</v>
+      </c>
+      <c r="M7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="N7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="O7" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="130" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="J7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="K7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="L7" s="135" t="s">
-        <v>277</v>
-      </c>
-      <c r="M7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="N7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="O7" s="132" t="s">
-        <v>268</v>
-      </c>
       <c r="P7" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U7" s="133" t="s">
+        <v>291</v>
+      </c>
+      <c r="V7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="W7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="X7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y7" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z7" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="V7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="W7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="X7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y7" s="132" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z7" s="132" t="s">
-        <v>269</v>
-      </c>
       <c r="AA7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE7" s="159"/>
       <c r="AF7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL7" s="159"/>
       <c r="AM7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AN7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AO7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP7" s="159"/>
       <c r="AQ7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AR7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AS7" s="159"/>
       <c r="AT7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AU7" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AV7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AW7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AY7" s="159"/>
       <c r="AZ7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BA7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BB7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BC7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BE7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BF7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BG7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BH7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI7" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ7" s="159"/>
       <c r="BK7" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BL7" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BN7" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BO7" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BP7" s="132"/>
       <c r="BQ7" s="132"/>
@@ -9172,16 +9353,16 @@
       <c r="BS7" s="132"/>
       <c r="BT7" s="132"/>
       <c r="BU7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX7" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BY7" s="132"/>
       <c r="BZ7" s="132"/>
@@ -9207,220 +9388,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="129" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B8" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L8" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O8" s="132" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P8" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U8" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="V8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W8" s="132" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="X8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Z8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB8" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AC8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE8" s="159"/>
       <c r="AF8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL8" s="159"/>
       <c r="AM8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AN8" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AO8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP8" s="159"/>
       <c r="AQ8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AR8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AS8" s="159"/>
       <c r="AT8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AU8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AV8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AW8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AY8" s="159"/>
       <c r="AZ8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BA8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BB8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BC8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BE8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BF8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BG8" s="132" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="BH8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI8" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ8" s="159"/>
       <c r="BK8" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BL8" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BN8" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BO8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BP8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BQ8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BR8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BS8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BT8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BU8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW8" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX8" s="132" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="BY8" s="132"/>
       <c r="BZ8" s="132"/>
@@ -9446,244 +9627,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="129" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O9" s="135" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P9" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U9" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="V9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="X9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Z9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE9" s="159"/>
       <c r="AF9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL9" s="159"/>
       <c r="AM9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AN9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AO9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP9" s="159"/>
       <c r="AQ9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AR9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AS9" s="159"/>
       <c r="AT9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AU9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AV9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AW9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AY9" s="159"/>
       <c r="AZ9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BA9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BB9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BC9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BE9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BF9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BG9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BH9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI9" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ9" s="159"/>
       <c r="BK9" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BL9" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BN9" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BO9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BP9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BQ9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BR9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BS9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BT9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BU9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BY9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BZ9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CA9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CB9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CC9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CD9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CE9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG9" s="132"/>
       <c r="CH9" s="132"/>
@@ -9698,249 +9879,249 @@
       <c r="CQ9" s="132"/>
       <c r="CR9" s="132"/>
       <c r="CS9" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="129" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="J10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="O10" s="132" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P10" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="R10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="U10" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="V10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="X10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Z10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AE10" s="159"/>
       <c r="AF10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AL10" s="159"/>
       <c r="AM10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AN10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AO10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP10" s="159"/>
       <c r="AQ10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AR10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AS10" s="159"/>
       <c r="AT10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AU10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AV10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AW10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AY10" s="159"/>
       <c r="AZ10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BA10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BB10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BC10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BD10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BE10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BF10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BG10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BH10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI10" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ10" s="159"/>
       <c r="BK10" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BL10" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BN10" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BO10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BP10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BQ10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BR10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BS10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BT10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BU10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW10" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BX10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BY10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BZ10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CA10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CB10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CC10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CD10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CE10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG10" s="132"/>
       <c r="CH10" s="132"/>
@@ -9955,249 +10136,249 @@
       <c r="CQ10" s="132"/>
       <c r="CR10" s="132"/>
       <c r="CS10" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="129" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J11" s="132" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O11" s="132" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P11" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="T11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="U11" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="V11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="X11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Z11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AC11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AE11" s="159"/>
       <c r="AF11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AG11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AH11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AI11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL11" s="159"/>
       <c r="AM11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AN11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AO11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AP11" s="159"/>
       <c r="AQ11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AR11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AS11" s="159"/>
       <c r="AT11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AU11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AV11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AW11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AY11" s="159"/>
       <c r="AZ11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BA11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BB11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BC11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BE11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BF11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BG11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BH11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI11" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BJ11" s="159"/>
       <c r="BK11" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BL11" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BM11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BN11" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BO11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BP11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BQ11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BR11" s="132" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="BS11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BT11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BU11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BY11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BZ11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CA11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CB11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CC11" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CD11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CE11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG11" s="132"/>
       <c r="CH11" s="132"/>
@@ -10212,249 +10393,249 @@
       <c r="CQ11" s="132"/>
       <c r="CR11" s="132"/>
       <c r="CS11" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="129" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B12" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="O12" s="132" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P12" s="133" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="R12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="S12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="T12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="U12" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="V12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="W12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="X12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Y12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Z12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AA12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AB12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AC12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AE12" s="159"/>
       <c r="AF12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AG12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AH12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AI12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AJ12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AK12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AL12" s="159"/>
       <c r="AM12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AN12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AO12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AP12" s="159"/>
       <c r="AQ12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AR12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AS12" s="159"/>
       <c r="AT12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AU12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AV12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AW12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AX12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AY12" s="159"/>
       <c r="AZ12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BA12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BB12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BC12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BD12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BE12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BF12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BG12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BH12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BI12" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BJ12" s="159"/>
       <c r="BK12" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BL12" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BM12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BN12" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BO12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BP12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BQ12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BR12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BS12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BT12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BU12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BV12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BW12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BX12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BY12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BZ12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CA12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CB12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CC12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CD12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CE12" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CG12" s="132"/>
       <c r="CH12" s="132"/>
@@ -10469,249 +10650,249 @@
       <c r="CQ12" s="132"/>
       <c r="CR12" s="132"/>
       <c r="CS12" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="129" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B13" s="130" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="I13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="J13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="O13" s="132" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P13" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="R13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="S13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="T13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="U13" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="V13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="X13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Y13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Z13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AA13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AB13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AC13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AE13" s="160"/>
       <c r="AF13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AG13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AH13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AI13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AJ13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AK13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AL13" s="160"/>
       <c r="AM13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AN13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AO13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AP13" s="160"/>
       <c r="AQ13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AR13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AS13" s="160"/>
       <c r="AT13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AU13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AV13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AW13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AX13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AY13" s="160"/>
       <c r="AZ13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BA13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BB13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BC13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BD13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BE13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BF13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BG13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BH13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BI13" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BJ13" s="160"/>
       <c r="BK13" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BL13" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BM13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BN13" s="133" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BO13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BP13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BQ13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BR13" s="132" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="BS13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BT13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BU13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BV13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BW13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BX13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BY13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BZ13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CA13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CB13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CC13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="CD13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CE13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CF13" s="132" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG13" s="132"/>
       <c r="CH13" s="132"/>
@@ -10726,7 +10907,7 @@
       <c r="CQ13" s="132"/>
       <c r="CR13" s="132"/>
       <c r="CS13" s="132" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -11748,7 +11929,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="136" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B1" s="136" t="s">
         <v>2</v>
@@ -11769,19 +11950,19 @@
         <v>10</v>
       </c>
       <c r="H1" s="137" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="I1" s="139" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="J1" s="140" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="K1" s="141" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L1" s="139" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="M1" s="142"/>
       <c r="N1" s="142"/>
@@ -11800,10 +11981,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="143" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145" t="s">
@@ -11830,7 +12011,7 @@
       </c>
       <c r="K2" s="148"/>
       <c r="L2" s="149" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="M2" s="142"/>
       <c r="N2" s="142"/>
@@ -11849,13 +12030,13 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="143" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B3" s="161" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C3" s="150" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D3" s="145" t="s">
         <v>173</v>
@@ -11877,7 +12058,7 @@
       </c>
       <c r="K3" s="146"/>
       <c r="L3" s="149" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="M3" s="151"/>
       <c r="N3" s="142"/>
@@ -11896,11 +12077,11 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="143" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B4" s="159"/>
       <c r="C4" s="152" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D4" s="145" t="s">
         <v>173</v>
@@ -11922,7 +12103,7 @@
       </c>
       <c r="K4" s="153"/>
       <c r="L4" s="156" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M4" s="151"/>
       <c r="N4" s="142"/>
@@ -11941,13 +12122,13 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="143" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>173</v>
@@ -11969,7 +12150,7 @@
       </c>
       <c r="K5" s="146"/>
       <c r="L5" s="149" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M5" s="151"/>
       <c r="N5" s="142"/>

--- a/Colpatria.xlsx
+++ b/Colpatria.xlsx
@@ -2319,9 +2319,9 @@
   </sheetPr>
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2463,7 +2463,7 @@
       NETWORKDAYS(J2,L2,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -2610,7 +2610,7 @@
       NETWORKDAYS(J4,L4,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -2997,7 +2997,7 @@
       NETWORKDAYS(J9,L9,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
@@ -3678,7 +3678,7 @@
       NETWORKDAYS(J18,L18,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N18" s="55"/>
       <c r="O18" s="55"/>
@@ -4067,7 +4067,7 @@
       NETWORKDAYS(J23,L23,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N23" s="55"/>
       <c r="O23" s="55"/>
@@ -5003,7 +5003,7 @@
       NETWORKDAYS(J35,L35,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
@@ -6257,7 +6257,7 @@
         <v>89</v>
       </c>
       <c r="G52" s="105">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H52" s="24">
         <f>IF(OR(J52="",K52="",K52&lt;J52),0,NETWORKDAYS(J52,K52,Hoja2!$A$2:$A$53))</f>
@@ -6541,7 +6541,7 @@
         <v>89</v>
       </c>
       <c r="G56" s="105">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H56" s="24">
         <f>IF(OR(J56="",K56="",K56&lt;J56),0,NETWORKDAYS(J56,K56,Hoja2!$A$2:$A$53))</f>
@@ -6562,7 +6562,7 @@
       NETWORKDAYS(J56,L56,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56" s="107"/>
       <c r="O56" s="107"/>
